--- a/docs/Lab4/TakeHome/SBTM Report Template v.1.1.xlsx
+++ b/docs/Lab4/TakeHome/SBTM Report Template v.1.1.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Year3\SSVV\SSVV\docs\Lab4\TakeHome\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9F07DB-317E-4EB3-BFC1-325D80807A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Summary" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sample 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="PS" sheetId="3" r:id="rId2"/>
+    <sheet name="PA" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
-  <si>
-    <t>Last refreshed: Tue May 21 2013 17:50:29 GMT+0300 (EEST).</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>Exploratory Testing Summary Report</t>
   </si>
@@ -188,25 +207,60 @@
   </si>
   <si>
     <t>See what can be done to separate the features and flows a bit more. Make a modular architecture to allow an easier inspection process</t>
+  </si>
+  <si>
+    <t>Last refreshed: Tue May 1 2021 17:50:29 GMT+0300 (EEST).</t>
+  </si>
+  <si>
+    <t>Petrus Andrei</t>
+  </si>
+  <si>
+    <t>Desktop pc</t>
+  </si>
+  <si>
+    <t>services-repository-tests</t>
+  </si>
+  <si>
+    <t>Deadline validation errors occur because the start date is not properly setup</t>
+  </si>
+  <si>
+    <t>Test cases look good, the mocked repositories are easy to use</t>
+  </si>
+  <si>
+    <t>The start date was changed to 21 of march. Pushed the changes</t>
+  </si>
+  <si>
+    <t>Added test cases in testlink</t>
+  </si>
+  <si>
+    <t>Executed the test cases in jenkins</t>
+  </si>
+  <si>
+    <t>Encountered problems connecting to the server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="14.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -214,7 +268,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -236,91 +290,130 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -329,7 +422,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="1" sz="1600">
+              <a:defRPr sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -337,7 +430,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600">
+              <a:rPr lang="en-US" sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -350,10 +443,21 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="50"/>
-      <c:perspective val="0"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -363,37 +467,68 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="93C47D"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5469-498B-A3D1-7E6825F28832}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="6D9EEB"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5469-498B-A3D1-7E6825F28832}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5469-498B-A3D1-7E6825F28832}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFE599"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5469-498B-A3D1-7E6825F28832}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -401,18 +536,56 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Summary!$B$8:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Time on Test (hours)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time on Setup (hours)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Time on Bugs (hours)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Time Off Charter (hours)</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Summary!$C$8:$C$11</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5469-498B-A3D1-7E6825F28832}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -421,6 +594,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -432,23 +606,35 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" sz="1100">
+            <a:defRPr sz="1100" b="0">
               <a:solidFill>
                 <a:srgbClr val="222222"/>
               </a:solidFill>
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -457,7 +643,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="1" sz="1600">
+              <a:defRPr sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -465,7 +651,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600">
+              <a:rPr lang="en-US" sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -478,16 +664,25 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Summary!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sessions</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -500,17 +695,49 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>Summary!$B$20:$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> AddStudent</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Summary!$C$20:$C$47</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C483-484D-A57B-E171ED8E8D82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -518,6 +745,13 @@
           <c:tx>
             <c:strRef>
               <c:f>Summary!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time
+ (hours)</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -530,17 +764,49 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>Summary!$B$20:$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> AddStudent</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Summary!$D$20:$D$47</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C483-484D-A57B-E171ED8E8D82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -548,6 +814,13 @@
           <c:tx>
             <c:strRef>
               <c:f>Summary!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number 
+of bugs</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -560,18 +833,59 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>Summary!$B$20:$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> AddStudent</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Summary!$E$20:$E$47</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C483-484D-A57B-E171ED8E8D82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1755694177"/>
         <c:axId val="558655269"/>
       </c:barChart>
@@ -596,15 +910,7 @@
                     <a:latin typeface="Roboto"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Roboto"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -613,22 +919,28 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" sz="800">
+              <a:defRPr sz="800" b="0">
                 <a:solidFill>
                   <a:srgbClr val="222222"/>
                 </a:solidFill>
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="558655269"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="558655269"/>
@@ -671,15 +983,7 @@
                     <a:latin typeface="Roboto"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Roboto"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -704,9 +1008,12 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1755694177"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -717,23 +1024,35 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" sz="1100">
+            <a:defRPr sz="1100" b="0">
               <a:solidFill>
                 <a:srgbClr val="222222"/>
               </a:solidFill>
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -742,7 +1061,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="1" sz="1600">
+              <a:defRPr sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -750,7 +1069,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600">
+              <a:rPr lang="en-US" sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -763,19 +1082,28 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Summary!$N$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sessions (hrs) over time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="38100">
+            <a:ln w="38100" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
@@ -787,15 +1115,38 @@
           <c:cat>
             <c:strRef>
               <c:f>Summary!$K$20:$K$74</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30-04-2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2022</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Summary!$N$20:$N$74</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63A2-4E5A-8EE1-48DDA45F4322}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -803,10 +1154,16 @@
           <c:tx>
             <c:strRef>
               <c:f>Summary!$O$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bugs over time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="38100">
+            <a:ln w="38100" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
@@ -818,16 +1175,48 @@
           <c:cat>
             <c:strRef>
               <c:f>Summary!$K$20:$K$74</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30-04-2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2022</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Summary!$O$20:$O$74</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63A2-4E5A-8EE1-48DDA45F4322}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="577927791"/>
         <c:axId val="152380895"/>
       </c:lineChart>
@@ -852,15 +1241,7 @@
                     <a:latin typeface="Roboto"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Roboto"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -869,28 +1250,34 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-1800000"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1000">
+              <a:defRPr sz="1000" b="0">
                 <a:solidFill>
                   <a:srgbClr val="222222"/>
                 </a:solidFill>
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="152380895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="152380895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -928,15 +1315,7 @@
                     <a:latin typeface="Roboto"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Roboto"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -961,9 +1340,12 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="577927791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -974,34 +1356,48 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" sz="800">
+            <a:defRPr sz="800" b="0">
               <a:solidFill>
                 <a:srgbClr val="222222"/>
               </a:solidFill>
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2457450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>628650</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4391025" cy="2486025"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1010,7 +1406,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1018,15 +1414,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6943725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>628650</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6934200" cy="2486025"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1035,7 +1437,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1049,9 +1451,15 @@
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5305425" cy="2476500"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1060,7 +1468,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1069,234 +1477,554 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.25"/>
-    <col customWidth="1" min="2" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="8.38"/>
-    <col customWidth="1" min="4" max="4" width="9.5"/>
-    <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="6" width="3.88"/>
-    <col customWidth="1" min="7" max="7" width="3.63"/>
-    <col customWidth="1" min="8" max="8" width="34.25"/>
-    <col customWidth="1" min="9" max="9" width="18.38"/>
-    <col customWidth="1" min="10" max="10" width="15.13"/>
-    <col customWidth="1" min="11" max="11" width="15.88"/>
-    <col customWidth="1" min="12" max="12" width="11.13"/>
-    <col customWidth="1" min="13" max="13" width="8.88"/>
-    <col customWidth="1" min="14" max="14" width="15.13"/>
-    <col customWidth="1" min="15" max="15" width="8.0"/>
-    <col customWidth="1" min="16" max="20" width="15.13"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="45.0" customHeight="1">
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18" ht="17.25" customHeight="1"/>
-    <row r="19" ht="17.25" customHeight="1">
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="H19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="L19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="M19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="N19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="O19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="13" t="s">
+    </row>
+    <row r="20" spans="2:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="K20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" ref="N20:O20" si="0">L20</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="N20" s="14">
-        <f t="shared" ref="N20:O20" si="1">L20</f>
+      <c r="I21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="12">
+        <v>44566</v>
+      </c>
+      <c r="L21">
         <v>1</v>
       </c>
-      <c r="O20" s="14">
-        <f t="shared" si="1"/>
+      <c r="M21">
         <v>1</v>
       </c>
-      <c r="R20" s="15"/>
-    </row>
-    <row r="21">
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="N21" s="11">
+        <v>1</v>
+      </c>
+      <c r="O21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1304,269 +2032,521 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30907D1-9CDF-47B5-80A0-394F311B367E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.75"/>
-    <col customWidth="1" min="2" max="2" width="32.0"/>
-    <col customWidth="1" min="3" max="3" width="43.5"/>
-    <col customWidth="1" min="4" max="20" width="15.13"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="143.85546875" customWidth="1"/>
+    <col min="4" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="11">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="143.85546875" customWidth="1"/>
+    <col min="4" max="20" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C1" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="11" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="11">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>27</v>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>44566</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>